--- a/pred_ohlcv/54_21/2020-01-15 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BHP ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>4618.9717</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4793.9717</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4793.9717</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4793.9717</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4790.4717</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>5592.3717</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5591.6717</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5927.7717</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5924.871700000001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5924.871700000001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6488.3567</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>6488.3567</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>6488.3567</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>7053.5567</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>7053.5567</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>7173.5567</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>7167.0567</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>7167.0567</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>7167.0567</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>7167.0567</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>7877.0567</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>7867.7567</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>7867.7567</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>7864.8567</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>8095.8567</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>8095.8567</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>8095.8567</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>8095.8567</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>8089.3567</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>8821.1414</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>8821.1414</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>8821.1414</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>8821.1414</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>8820.4414</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8819.741399999999</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8819.741399999999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>8819.741399999999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8918.211399999998</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>8918.211399999998</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8364.411399999999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>9126.1114</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>9123.511399999999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9123.511399999999</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>10904.0114</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10896.1114</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>11797.6114</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>23169.002</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>23468.002</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>23468.002</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>23451.602</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>23438.90199999999</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>24238.90199999999</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>24238.90199999999</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>25109.90199999999</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>25076.602</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>25064.602</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>25056.802</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>25056.802</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>25801.702</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>25801.702</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>25801.702</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>25801.702</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>56512.52289495001</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>55844.52289495001</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>55844.52289495001</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>56022.59789495001</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>56022.59789495001</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>56723.59789495001</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>57571.59789495001</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>57571.59789495001</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>57826.69789495</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>57826.69789495</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BHP ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>5592.3717</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5591.6717</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5591.6717</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5932.6717</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5932.6717</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5932.6717</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>5927.7717</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>5927.7717</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5927.7717</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5924.871700000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5924.871700000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6488.3567</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>6488.3567</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>6488.3567</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>7053.5567</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>7053.5567</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>7173.5567</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>7167.0567</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>7167.0567</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>7167.0567</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>7167.0567</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>7877.0567</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>23169.002</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>23468.002</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>23468.002</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>23451.602</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>23438.90199999999</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>24238.90199999999</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>24238.90199999999</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>25109.90199999999</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>25076.602</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>25064.602</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>25056.802</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>25056.802</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>25801.702</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>25801.702</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>25801.702</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>25801.702</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>39625.70788045</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>40270.20788045</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>40270.20788045</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>40270.20788045</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>40270.20788045</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>40259.50788045</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>40259.50788045</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>40258.20788045001</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>42798.00788045</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>43584.60788045</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>44121.90788045</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>44361.30788045</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>44361.30788045</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>46175.50788045001</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>46175.50788045001</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>52832.17249495</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>54115.17249495</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>53200.77249495</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>52483.29519495</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>56512.52289495001</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>55844.52289495001</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>56022.59789495001</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>56723.59789495001</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>57571.59789495001</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>57571.59789495001</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>57826.69789495</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>57826.69789495</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
